--- a/Structural_BOQ.xlsx
+++ b/Structural_BOQ.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2106.73</v>
+        <v>1465.44</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>16853.84</v>
+        <v>11723.52</v>
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>143.8</v>
+        <v>94.93000000000001</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>9347</v>
+        <v>6170.450000000001</v>
       </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>143.09</v>
+        <v>109.21</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9587.030000000001</v>
+        <v>7317.070000000001</v>
       </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>293.82</v>
+        <v>207.06</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>22624.14</v>
+        <v>15943.62</v>
       </c>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>3511.23</v>
+        <v>2442.4</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>7022.46</v>
+        <v>4884.8</v>
       </c>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>6364.1</v>
+        <v>4426.86</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>9546.150000000001</v>
+        <v>6640.289999999999</v>
       </c>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>74980.62</v>
+        <v>52679.75</v>
       </c>
     </row>
   </sheetData>

--- a/Structural_BOQ.xlsx
+++ b/Structural_BOQ.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1465.44</v>
+        <v>2176.15</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>11723.52</v>
+        <v>17409.2</v>
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>94.93000000000001</v>
+        <v>149.09</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>6170.450000000001</v>
+        <v>9690.85</v>
       </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>109.21</v>
+        <v>146.76</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>7317.070000000001</v>
+        <v>9832.92</v>
       </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>207.06</v>
+        <v>303.21</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>15943.62</v>
+        <v>23347.17</v>
       </c>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>2442.4</v>
+        <v>3626.92</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>4884.8</v>
+        <v>7253.84</v>
       </c>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="E13" s="4" t="n">
-        <v>4426.86</v>
+        <v>6573.79</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>6640.289999999999</v>
+        <v>9860.684999999999</v>
       </c>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52679.75</v>
+        <v>77394.66500000001</v>
       </c>
     </row>
   </sheetData>
